--- a/biology/Zoologie/Conus_indomaris/Conus_indomaris.xlsx
+++ b/biology/Zoologie/Conus_indomaris/Conus_indomaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus indomaris est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille atteint 45 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine dans l'océan Indien central et au large du sud-ouest de l'Inde.
 </t>
@@ -576,14 +592,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus indomaris a été décrite pour la première fois en 2014 par le malacologiste italien Luigi Bozzetti (1948-)[1] dans la publication intitulée « Malacologia Mostra Mondiale »[2],[3].
-Synonymes
-Graphiconus indomaris Bozzetti, 2014 · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus indomaris a été décrite pour la première fois en 2014 par le malacologiste italien Luigi Bozzetti (1948-) dans la publication intitulée « Malacologia Mostra Mondiale »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_indomaris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_indomaris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Graphiconus indomaris Bozzetti, 2014 · non accepté
 Phasmoconus (Phasmoconus) indomaris (Bozzetti, 2014) · non accepté
-Phasmoconus indomaris (Bozzetti, 2014) · non accepté
-Sous-espèces
-Forma Conus indomaris f. suavis Bozzetti, 2020 (infrasubspecific name)</t>
+Phasmoconus indomaris (Bozzetti, 2014) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_indomaris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_indomaris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Forma Conus indomaris f. suavis Bozzetti, 2020 (infrasubspecific name)</t>
         </is>
       </c>
     </row>
